--- a/Le_Diagramme_de_Gantt.xlsx
+++ b/Le_Diagramme_de_Gantt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t xml:space="preserve">Nom de la tache </t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">Réunion de suivi + presentation de l'etat d'avencement </t>
   </si>
   <si>
-    <t>Formation Postgresql High Availability</t>
-  </si>
-  <si>
     <t>conception générale</t>
   </si>
   <si>
@@ -158,6 +155,12 @@
   </si>
   <si>
     <t>Fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation cloud computing </t>
+  </si>
+  <si>
+    <t>Formation cloud native</t>
   </si>
 </sst>
 </file>
@@ -272,10 +275,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$34</c:f>
+              <c:f>Feuil1!$B$2:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44263</c:v>
                 </c:pt>
@@ -313,66 +316,69 @@
                   <c:v>44305</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>44311</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>44316</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>44317</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44320</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>44324</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>44327</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>44328</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44329</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>44329</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>44329</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>44339</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>44343</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>44344</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>44348</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44351</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>44351</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>44351</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>44354</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>44359</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>44361</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>44367</c:v>
                 </c:pt>
               </c:numCache>
@@ -396,10 +402,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$2:$C$34</c:f>
+              <c:f>Feuil1!$C$2:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -434,69 +440,72 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -513,11 +522,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="201736960"/>
-        <c:axId val="201738496"/>
+        <c:axId val="199389952"/>
+        <c:axId val="199391488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201736960"/>
+        <c:axId val="199389952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -532,7 +541,7 @@
             <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </c:spPr>
-        <c:crossAx val="201738496"/>
+        <c:crossAx val="199391488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -540,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201738496"/>
+        <c:axId val="199391488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44369"/>
@@ -577,7 +586,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201736960"/>
+        <c:crossAx val="199389952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="8"/>
@@ -939,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -979,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <f>B2+C2</f>
+        <f t="shared" ref="D2:D11" si="0">B2+C2</f>
         <v>44264</v>
       </c>
     </row>
@@ -994,7 +1003,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="4">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>44279</v>
       </c>
     </row>
@@ -1009,13 +1018,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>44269</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>44269</v>
@@ -1024,13 +1033,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>44276</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3">
         <v>44276</v>
@@ -1039,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="3">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>44285</v>
       </c>
     </row>
@@ -1054,7 +1063,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>44299</v>
       </c>
     </row>
@@ -1069,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>44286</v>
       </c>
     </row>
@@ -1084,7 +1093,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>44298</v>
       </c>
     </row>
@@ -1099,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="3">
-        <f>B10+C10</f>
+        <f t="shared" si="0"/>
         <v>44299</v>
       </c>
     </row>
@@ -1114,18 +1123,18 @@
         <v>3</v>
       </c>
       <c r="D11" s="4">
-        <f>B11+C11</f>
+        <f t="shared" si="0"/>
         <v>44302</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
+      <c r="A12" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>44302</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="3">
@@ -1135,302 +1144,302 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>44305</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <f>B13+C13</f>
-        <v>44311</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
+      <c r="A14" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>44311</v>
+        <v>44308</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3">
         <f>B14+C14</f>
-        <v>44312</v>
+        <v>44311</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <f>B15+C15</f>
-        <v>44342</v>
+        <v>44312</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="3">
         <v>44312</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D16" s="3">
         <f>B16+C16</f>
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44312</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <f>B17+C17</f>
         <v>44316</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>44316</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <f>B17+C17</f>
+      <c r="D18" s="4">
+        <f>B18+C18</f>
         <v>44317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>44317</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <f>B18+C18</f>
-        <v>44320</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>44320</v>
+        <v>44317</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3">
         <f>B19+C19</f>
-        <v>44324</v>
+        <v>44320</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
-        <v>44324</v>
+        <v>44320</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <f>B20+C20</f>
-        <v>44327</v>
+        <v>44324</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>44327</v>
+        <v>44324</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <f>B21+C21</f>
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44327</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <f>B22+C22</f>
         <v>44328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="4">
-        <v>44328</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <f>B22+C22</f>
-        <v>44329</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="C23" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <f>B23+C23</f>
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44329</v>
+      </c>
+      <c r="C24" s="1">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4">
+        <f>B24+C24</f>
         <v>44368</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3">
-        <v>44329</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24" s="3">
-        <f>B24+C24</f>
-        <v>44339</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3">
-        <v>44339</v>
+        <v>44329</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3">
         <f>B25+C25</f>
-        <v>44343</v>
+        <v>44339</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
+      <c r="A26" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>44343</v>
+        <v>44339</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="3">
         <f>B26+C26</f>
-        <v>44344</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>28</v>
+      <c r="A27" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>44344</v>
+        <v>44343</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <f>B27+C27</f>
-        <v>44348</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>44348</v>
+        <v>44344</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
         <f>B28+C28</f>
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44348</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3">
+        <f>B29+C29</f>
         <v>44351</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4">
         <v>44351</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>15</v>
       </c>
-      <c r="D29" s="4">
-        <f>B29+C29</f>
+      <c r="D30" s="4">
+        <f>B30+C30</f>
         <v>44366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3">
-        <v>44351</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
-        <f>B30+C30</f>
-        <v>44354</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3">
-        <v>44354</v>
+        <v>44351</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3">
         <f>B31+C31</f>
-        <v>44359</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3">
-        <v>44359</v>
+        <v>44354</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3">
         <f>B32+C32</f>
-        <v>44361</v>
+        <v>44359</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1438,28 +1447,43 @@
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>44361</v>
+        <v>44359</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3">
         <f>B33+C33</f>
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44361</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <f>B34+C34</f>
         <v>44366</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="4">
         <v>44367</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="4">
-        <f>B34+C34</f>
+      <c r="D35" s="4">
+        <f>B35+C35</f>
         <v>44369</v>
       </c>
     </row>
